--- a/MyProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
+++ b/MyProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\shapes\Dataset-Otovwerakpo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otoem\neocortexapi-classification\MyProject\Dataset Reports\Dataset-Otovwerakpo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF16964-1364-4EB5-B749-5B6E974C3E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB1864-ABFD-4FD4-917D-C070E5C72E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>Experiment Number</t>
   </si>
@@ -272,13 +272,22 @@
   </si>
   <si>
     <t>Experiment0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle -square macro (max) correlation is 92.63, circle -triangle macro (max) correlation is 37.27, circle -star macro (max) correlation is 59.76. The micro values are high enough except the triangle. </t>
+  </si>
+  <si>
+    <t>Experiment0015</t>
+  </si>
+  <si>
+    <t>The triangle dataset was updated which inprove the result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +299,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,10 +416,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,25 +702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="16.54296875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="70.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="70.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="71.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -721,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -748,7 +768,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -783,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -818,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -853,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -888,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -923,7 +943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -958,7 +978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1063,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1133,7 +1153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1168,7 +1188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1203,7 +1223,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1343,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1413,7 +1433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1448,7 +1468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1483,7 +1503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1518,7 +1538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1623,7 +1643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1658,7 +1678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1686,8 +1706,48 @@
       <c r="I29" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
